--- a/biology/Botanique/Hymenophyllum_australe/Hymenophyllum_australe.xlsx
+++ b/biology/Botanique/Hymenophyllum_australe/Hymenophyllum_australe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum australe est une fougère de la famille des Hyménophyllacées.
 Synonymes : Hymenophyllum serpens Wall., Mecodium australe (Willd.) Copel., Sphaerocionium australe (Willd.) C.Presl.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme, presque sans poils ;
@@ -520,7 +534,7 @@
 le limbe est glabre ;
 Les sores, solitaires, sont portés par l'extrémité d'un segment axillaire, dans la partie médiane ou terminale du limbe ;
 l'indusie, englobant complètement les sporanges, a deux lèvres.
-Cette espèce compte 72 chromosomes (36 paires)[1].
+Cette espèce compte 72 chromosomes (36 paires).
 </t>
         </is>
       </c>
@@ -549,14 +563,16 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymenophyllum australe appartient au sous-genre Globosa : elle en est l'espèce type (Hymenophyllum australe clade).
-Cette espèce est décrite par Carl Ludwig Willdenow en 1810 à partir de l'exemplaire recueilli par Jacques-Julien Houtou de La Billardière en Tasmanie (à Van Diemen)[2].
-En 1843, Karel Bořivoj Presl place cette espèce dans le genre Sphaerocionium, section Glabra : Sphaerocionium australe (Willd.) C.Presl[3].
+Cette espèce est décrite par Carl Ludwig Willdenow en 1810 à partir de l'exemplaire recueilli par Jacques-Julien Houtou de La Billardière en Tasmanie (à Van Diemen).
+En 1843, Karel Bořivoj Presl place cette espèce dans le genre Sphaerocionium, section Glabra : Sphaerocionium australe (Willd.) C.Presl.
 En 1875, Karl Anton Eugen Prantl la place dans la section Globosa du genre Hymenophyllum.
 En 1938, Edwin Bingham Copeland la transfère dans le genre Mecodium : Mecodium australe (Willd.) Copel..
-En 1968, Conrad Vernon Morton la place replace dans le genre Hymenophyllum, sous-genre Mecodium, section Mecodium, sous-section Diplophyllum, en marquant cependant une hésitation[4].
+En 1968, Conrad Vernon Morton la place replace dans le genre Hymenophyllum, sous-genre Mecodium, section Mecodium, sous-section Diplophyllum, en marquant cependant une hésitation.
 Enfin, Atsushi Ebihara et al. la place dans le sous-genre Globosa en 2005.
 Plusieurs variétés sont répertoriées :
 Hymenophyllum australe var. atrovirens (Colenso) Alderw. (1908) - Synonyme : Hymenophyllum atrovirens Colenso
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte mais terrestre, est présente dans toute la zone tropicale de l'Australasie : Australie, Nouvelle-Zélande, Polynésie, Philippines.
 </t>
